--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_020.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_020.xlsx
@@ -31,304 +31,316 @@
     <t>System</t>
   </si>
   <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295004AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Prevention of inadvertent system(s) actuation upon restoration of DC power</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295021AA1.03) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(295038EK2.13) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.08) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) </t>
-  </si>
-  <si>
-    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295006AA1.02) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(295023AK2.07) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295037EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Standby liquid control system tank level</t>
-  </si>
-  <si>
-    <t>(295003AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Containment isolation</t>
-  </si>
-  <si>
-    <t>(295016AA1.10) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295020AA1.05) Ability to operate and/or monitor the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295009AK2.04) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
-  </si>
-  <si>
-    <t>(295022AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Closing flow control valve</t>
-  </si>
-  <si>
-    <t>(295013AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Surveillance testing</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(259002K3.01) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) OPRM operation</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(203000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) High drywell pressure</t>
-  </si>
-  <si>
-    <t>(510000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(264000K4.09) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Standby readiness</t>
-  </si>
-  <si>
-    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(211000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
-  </si>
-  <si>
-    <t>(212000K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(215004K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291005K1.03) MOTORS AND GENERATORS (CFR: 41.7) Causes of excessive current in motors and generators, such as low voltage, overloading, and mechanical binding</t>
-  </si>
-  <si>
-    <t>(205000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(209001A2.01) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(218000K4.05) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Inhibiting automatic initiation of ADS logic</t>
-  </si>
-  <si>
-    <t>(223002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(262001A4.04) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchronizing of AC sources</t>
-  </si>
-  <si>
-    <t>(261000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Primary containment isolation system/nuclear steam supply shutoff system</t>
-  </si>
-  <si>
-    <t>(259002K3.08) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(215005K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Effects of voids on LPRM indication</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDH) CRD HYDRAULIC SYSTEM including: (CFR: 41.1-2 / 41.5-7 / 41.10 / 45.1-6 / 45.12) CRD cooling water header pressure</t>
-  </si>
-  <si>
-    <t>(510001A4.02) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Circulating water valves</t>
-  </si>
-  <si>
-    <t>(286000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FPS) FIRE PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(204000K3.04) Knowledge of the effect that a loss or malfunction of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Heat balance</t>
-  </si>
-  <si>
-    <t>(215001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.5 / 45.3) Flux detection</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (291008K1.12) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Trip indicators for circuit breakers and protective relays</t>
-  </si>
-  <si>
-    <t>(290002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) Recirculation system</t>
-  </si>
-  <si>
-    <t>(216000A2.14) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Partial or complete loss of recirculation flow</t>
-  </si>
-  <si>
-    <t>(241000K2.01) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(272000A3.01) Ability to monitor automatic operation of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM including: (CFR: 41.7 / 45.7) Main steam radiation alarms</t>
-  </si>
-  <si>
-    <t>(239001K4.12) Knowledge of (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) MSIV testing</t>
-  </si>
-  <si>
-    <t>(G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
+  </si>
+  <si>
+    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
+  </si>
+  <si>
+    <t>(700000AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Frequency changes</t>
+  </si>
+  <si>
+    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
+  </si>
+  <si>
+    <t>(295019AK2.03) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA1.11) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RCIC (BWR 6)</t>
+  </si>
+  <si>
+    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
+  </si>
+  <si>
+    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
+  </si>
+  <si>
+    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
+  </si>
+  <si>
+    <t>(295006AK2.02) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295018AA1.05) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor recirculation system</t>
+  </si>
+  <si>
+    <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(295030EK2.06) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup system(s)</t>
+  </si>
+  <si>
+    <t>(295036EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(295033EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Operating ventilation systems</t>
+  </si>
+  <si>
+    <t>(295009AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Recirculation pump net positive suction head</t>
+  </si>
+  <si>
+    <t>(295017AA2.03) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295022AK2.08) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000K4.06) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Manual system initiation</t>
+  </si>
+  <si>
+    <t>(400000A2.15) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to turbine lube oil system</t>
+  </si>
+  <si>
+    <t>(259002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(203000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(510000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood prevention</t>
+  </si>
+  <si>
+    <t>(264000A3.07) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Room ventilation system</t>
+  </si>
+  <si>
+    <t>(205000A4.06) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(209002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Suppression pool suction strainer</t>
+  </si>
+  <si>
+    <t>(262002K2.02) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(215004K4.06) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) IRM/SRMS interlock</t>
+  </si>
+  <si>
+    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
+  </si>
+  <si>
+    <t>(209001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
+  </si>
+  <si>
+    <t>(211000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) RWCU system lineup</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291002K1.08) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Effects of operating environment (pressure, temperature, or radiation)</t>
+  </si>
+  <si>
+    <t>(215005K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(215003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(262001A4.01) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Breakers and disconnects </t>
+  </si>
+  <si>
+    <t>(300000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Air dryers</t>
+  </si>
+  <si>
+    <t>(261000K2.04) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Standby gas treatment system heaters</t>
+  </si>
+  <si>
+    <t>(217000K4.18) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Remote operation</t>
+  </si>
+  <si>
+    <t>(400000A2.04) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiation monitoring system alarm</t>
+  </si>
+  <si>
+    <t>(259002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor feedwater flow</t>
+  </si>
+  <si>
+    <t>(203000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(290001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.7 / 45.7) Primary containment system</t>
+  </si>
+  <si>
+    <t>(216000K2.01) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Analog trip system</t>
+  </si>
+  <si>
+    <t>(201003K4.08) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) CRD mechanism temperature</t>
+  </si>
+  <si>
+    <t>(290002A2.06) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding safety limits</t>
+  </si>
+  <si>
+    <t>(201005K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(239003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.5 / 45.5) Status indicating lights and alarms</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(233000K3.02) Knowledge of the effect that a loss or malfunction of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool water level</t>
+  </si>
+  <si>
+    <t>(259001K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Thermal power calculation</t>
+  </si>
+  <si>
+    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
+  </si>
+  <si>
+    <t>(256000A4.04) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valves</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292006K1.09) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Initial reactor startup and ascension to rated power</t>
-  </si>
-  <si>
-    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
-  </si>
-  <si>
-    <t>(292005K1.09) CONTROL RODS (CFR: 41.1) Explain direction of change in the magnitude of CRW for a change in moderator temperature, void fraction, control rod density, and xenon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
-  </si>
-  <si>
-    <t>(293006K1.11) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define net positive suction head (NPSH)</t>
-  </si>
-  <si>
-    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA2.13) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for emergency plant shutdown </t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292006K1.07) FISSION PRODUCT POISONS (CFR: 41.1) Describe the following processes and state their effect on reactor operations: --Xenon following a SCRAM</t>
+  </si>
+  <si>
+    <t>(292008K1.22) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the effect that opening steam bypass valves, during power operation, will have on reactor power</t>
+  </si>
+  <si>
+    <t>(293007K1.12) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define percent reactor power</t>
+  </si>
+  <si>
+    <t>(293009K1.18) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Define CPR</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295001AA2.13) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal limits</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
   </si>
   <si>
     <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
   </si>
   <si>
-    <t>(203000A2.17) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Keep fill system failure</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(264000A2.11) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failure of emergency generator to start/load</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(288000A2.01) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High drywell pressure </t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AA2.03) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown flow</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(205000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC power</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215001A2.05) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K3</t>
@@ -337,33 +349,21 @@
     <t>K1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>K4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>271000</t>
   </si>
   <si>
     <t>215001</t>
   </si>
   <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>219000</t>
+    <t>223001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D29" t="s">
         <v>105</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
         <v>113</v>
@@ -1562,7 +1562,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -1582,7 +1582,7 @@
         <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D40" t="s">
         <v>105</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
         <v>113</v>
@@ -1749,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
         <v>114</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
         <v>105</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D57" t="s">
         <v>105</v>
@@ -1939,7 +1939,7 @@
         <v>3.2</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1990,7 +1990,7 @@
         <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
         <v>113</v>
@@ -2038,7 +2038,7 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D64" t="s">
         <v>114</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2330,7 +2330,7 @@
         <v>4.3</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D82" t="s">
         <v>107</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2466,7 +2466,7 @@
         <v>3.5</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
